--- a/exports/work_records_export_2025-01-27.xlsx
+++ b/exports/work_records_export_2025-01-27.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,67 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1 - 2</t>
+          <t>12:00 AM - 12:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12:30 AM - 9:45 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11:00 AM - 12:30 PM</t>
         </is>
       </c>
     </row>
@@ -837,16 +897,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>newWMail@d.com</t>
+          <t>w@s.com</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>newWMail@d.com</t>
+          <t>amman</t>
         </is>
       </c>
     </row>
